--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H2">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I2">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J2">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N2">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O2">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P2">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q2">
-        <v>40.94636380501409</v>
+        <v>65.97664983146132</v>
       </c>
       <c r="R2">
-        <v>40.94636380501409</v>
+        <v>593.7898484831519</v>
       </c>
       <c r="S2">
-        <v>0.0652395733657596</v>
+        <v>0.06681700925492928</v>
       </c>
       <c r="T2">
-        <v>0.0652395733657596</v>
+        <v>0.06681700925492928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H3">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I3">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J3">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P3">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q3">
-        <v>92.58427988322613</v>
+        <v>115.7883219990462</v>
       </c>
       <c r="R3">
-        <v>92.58427988322613</v>
+        <v>1042.094897991416</v>
       </c>
       <c r="S3">
-        <v>0.1475139269684822</v>
+        <v>0.1172631438908519</v>
       </c>
       <c r="T3">
-        <v>0.1475139269684822</v>
+        <v>0.117263143890852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H4">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I4">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J4">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N4">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O4">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P4">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q4">
-        <v>139.9558477482182</v>
+        <v>274.8812659231164</v>
       </c>
       <c r="R4">
-        <v>139.9558477482182</v>
+        <v>2473.931393308048</v>
       </c>
       <c r="S4">
-        <v>0.2229907358957931</v>
+        <v>0.278382490413044</v>
       </c>
       <c r="T4">
-        <v>0.2229907358957931</v>
+        <v>0.278382490413044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.9993847345285</v>
+        <v>37.63904266666666</v>
       </c>
       <c r="H5">
-        <v>30.9993847345285</v>
+        <v>112.917128</v>
       </c>
       <c r="I5">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="J5">
-        <v>0.4614759162783345</v>
+        <v>0.4850220755088102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N5">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O5">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P5">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q5">
-        <v>16.14999421692845</v>
+        <v>22.27570133350489</v>
       </c>
       <c r="R5">
-        <v>16.14999421692845</v>
+        <v>200.481312001544</v>
       </c>
       <c r="S5">
-        <v>0.02573168004829958</v>
+        <v>0.02255943194998493</v>
       </c>
       <c r="T5">
-        <v>0.02573168004829958</v>
+        <v>0.02255943194998494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H6">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I6">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J6">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N6">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O6">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P6">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q6">
-        <v>22.50282520689976</v>
+        <v>30.80568563637333</v>
       </c>
       <c r="R6">
-        <v>22.50282520689976</v>
+        <v>277.25117072736</v>
       </c>
       <c r="S6">
-        <v>0.03585360407125158</v>
+        <v>0.03119806458084913</v>
       </c>
       <c r="T6">
-        <v>0.03585360407125158</v>
+        <v>0.03119806458084913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H7">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I7">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J7">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N7">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O7">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P7">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q7">
-        <v>50.88138905422903</v>
+        <v>54.06365217054223</v>
       </c>
       <c r="R7">
-        <v>50.88138905422903</v>
+        <v>486.57286953488</v>
       </c>
       <c r="S7">
-        <v>0.08106898404855781</v>
+        <v>0.054752273064217</v>
       </c>
       <c r="T7">
-        <v>0.08106898404855781</v>
+        <v>0.05475227306421701</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H8">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I8">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J8">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N8">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O8">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P8">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q8">
-        <v>76.91530299391246</v>
+        <v>128.3470119654044</v>
       </c>
       <c r="R8">
-        <v>76.91530299391246</v>
+        <v>1155.12310768864</v>
       </c>
       <c r="S8">
-        <v>0.122548648678946</v>
+        <v>0.1299817967150788</v>
       </c>
       <c r="T8">
-        <v>0.122548648678946</v>
+        <v>0.1299817967150788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.0362804258851</v>
+        <v>17.57434666666667</v>
       </c>
       <c r="H9">
-        <v>17.0362804258851</v>
+        <v>52.72304</v>
       </c>
       <c r="I9">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="J9">
-        <v>0.253612553501848</v>
+        <v>0.2264655392929762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N9">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O9">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P9">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q9">
-        <v>8.87552552130356</v>
+        <v>10.40092599976889</v>
       </c>
       <c r="R9">
-        <v>8.87552552130356</v>
+        <v>93.60833399792</v>
       </c>
       <c r="S9">
-        <v>0.01414131670309268</v>
+        <v>0.01053340493283121</v>
       </c>
       <c r="T9">
-        <v>0.01414131670309268</v>
+        <v>0.01053340493283121</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H10">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I10">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J10">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N10">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O10">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P10">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q10">
-        <v>21.92780568619471</v>
+        <v>33.599442458724</v>
       </c>
       <c r="R10">
-        <v>21.92780568619471</v>
+        <v>302.394982128516</v>
       </c>
       <c r="S10">
-        <v>0.03493742923369037</v>
+        <v>0.03402740611201023</v>
       </c>
       <c r="T10">
-        <v>0.03493742923369037</v>
+        <v>0.03402740611201023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H11">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I11">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J11">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N11">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O11">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P11">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q11">
-        <v>49.58120600264495</v>
+        <v>58.96666581794201</v>
       </c>
       <c r="R11">
-        <v>49.58120600264495</v>
+        <v>530.6999923614781</v>
       </c>
       <c r="S11">
-        <v>0.07899741090505076</v>
+        <v>0.05971773749886515</v>
       </c>
       <c r="T11">
-        <v>0.07899741090505076</v>
+        <v>0.05971773749886516</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H12">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I12">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J12">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N12">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O12">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P12">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q12">
-        <v>74.94986975360617</v>
+        <v>139.986757450676</v>
       </c>
       <c r="R12">
-        <v>74.94986975360617</v>
+        <v>1259.880817056084</v>
       </c>
       <c r="S12">
-        <v>0.1194171367652858</v>
+        <v>0.1417698002557428</v>
       </c>
       <c r="T12">
-        <v>0.1194171367652858</v>
+        <v>0.1417698002557428</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.600948696868</v>
+        <v>19.168158</v>
       </c>
       <c r="H13">
-        <v>16.600948696868</v>
+        <v>57.504474</v>
       </c>
       <c r="I13">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="J13">
-        <v>0.2471319375072528</v>
+        <v>0.2470036195972184</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N13">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O13">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P13">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q13">
-        <v>8.648727313330076</v>
+        <v>11.344182329578</v>
       </c>
       <c r="R13">
-        <v>8.648727313330076</v>
+        <v>102.097640966202</v>
       </c>
       <c r="S13">
-        <v>0.01377996060322583</v>
+        <v>0.01148867573060022</v>
       </c>
       <c r="T13">
-        <v>0.01377996060322583</v>
+        <v>0.01148867573060022</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H14">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I14">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J14">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.32087666112309</v>
+        <v>1.752878</v>
       </c>
       <c r="N14">
-        <v>1.32087666112309</v>
+        <v>5.258634</v>
       </c>
       <c r="O14">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="P14">
-        <v>0.1413715668889013</v>
+        <v>0.1377607590022273</v>
       </c>
       <c r="Q14">
-        <v>3.352150985666845</v>
+        <v>5.646360096332</v>
       </c>
       <c r="R14">
-        <v>3.352150985666845</v>
+        <v>50.81724086698799</v>
       </c>
       <c r="S14">
-        <v>0.005340960218199776</v>
+        <v>0.005718279054438651</v>
       </c>
       <c r="T14">
-        <v>0.005340960218199776</v>
+        <v>0.005718279054438651</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H15">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I15">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J15">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.98664895049035</v>
+        <v>3.076282333333333</v>
       </c>
       <c r="N15">
-        <v>2.98664895049035</v>
+        <v>9.228847</v>
       </c>
       <c r="O15">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="P15">
-        <v>0.3196568266403543</v>
+        <v>0.2417686736584878</v>
       </c>
       <c r="Q15">
-        <v>7.579585980960946</v>
+        <v>9.909302194439334</v>
       </c>
       <c r="R15">
-        <v>7.579585980960946</v>
+        <v>89.18371974995399</v>
       </c>
       <c r="S15">
-        <v>0.01207650471826345</v>
+        <v>0.01003551920455369</v>
       </c>
       <c r="T15">
-        <v>0.01207650471826345</v>
+        <v>0.01003551920455369</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H16">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I16">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J16">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.51479437242924</v>
+        <v>7.303088666666667</v>
       </c>
       <c r="N16">
-        <v>4.51479437242924</v>
+        <v>21.909266</v>
       </c>
       <c r="O16">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="P16">
-        <v>0.4832120767951377</v>
+        <v>0.5739583917309499</v>
       </c>
       <c r="Q16">
-        <v>11.45774836596304</v>
+        <v>23.52466539453467</v>
       </c>
       <c r="R16">
-        <v>11.45774836596304</v>
+        <v>211.721988550812</v>
       </c>
       <c r="S16">
-        <v>0.01825555545511279</v>
+        <v>0.02382430434708422</v>
       </c>
       <c r="T16">
-        <v>0.01825555545511279</v>
+        <v>0.02382430434708422</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.53782285986993</v>
+        <v>3.221194</v>
       </c>
       <c r="H17">
-        <v>2.53782285986993</v>
+        <v>9.663582</v>
       </c>
       <c r="I17">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="J17">
-        <v>0.0377795927125646</v>
+        <v>0.04150876560099527</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.520977895375448</v>
+        <v>0.5918243333333334</v>
       </c>
       <c r="N17">
-        <v>0.520977895375448</v>
+        <v>1.775473</v>
       </c>
       <c r="O17">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="P17">
-        <v>0.05575952967560668</v>
+        <v>0.04651217560833507</v>
       </c>
       <c r="Q17">
-        <v>1.322149612370737</v>
+        <v>1.906380991587334</v>
       </c>
       <c r="R17">
-        <v>1.322149612370737</v>
+        <v>17.157428924286</v>
       </c>
       <c r="S17">
-        <v>0.00210657232098858</v>
+        <v>0.00193066299491871</v>
       </c>
       <c r="T17">
-        <v>0.00210657232098858</v>
+        <v>0.00193066299491871</v>
       </c>
     </row>
   </sheetData>
